--- a/Code/Results/Cases/Case_0_172/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_172/res_line/pl_mw.xlsx
@@ -424,25 +424,25 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1221946714365743</v>
+        <v>0.1820850610635887</v>
       </c>
       <c r="D2">
-        <v>0.007364140351310056</v>
+        <v>0.02139114999639347</v>
       </c>
       <c r="E2">
-        <v>0.1299150751194027</v>
+        <v>0.1309150718809811</v>
       </c>
       <c r="F2">
-        <v>1.797698682742734</v>
+        <v>1.211031564607481</v>
       </c>
       <c r="G2">
-        <v>0.0007488463572499535</v>
+        <v>0.002419494034503993</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.542038469277131</v>
+        <v>1.163511203300047</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.2151905644388847</v>
+        <v>0.1758153550338051</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>6.043687636112509</v>
+        <v>4.26680577857752</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,25 +471,25 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1115443333273731</v>
+        <v>0.180673226964899</v>
       </c>
       <c r="D3">
-        <v>0.007153179242349594</v>
+        <v>0.02150530346930246</v>
       </c>
       <c r="E3">
-        <v>0.115533696287045</v>
+        <v>0.1282938749518223</v>
       </c>
       <c r="F3">
-        <v>1.572264000286538</v>
+        <v>1.161875341057907</v>
       </c>
       <c r="G3">
-        <v>0.000756119271417405</v>
+        <v>0.002424323654764397</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.353947958768572</v>
+        <v>1.124087299103635</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1894313576299211</v>
+        <v>0.1706748245311545</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>5.293319871489985</v>
+        <v>4.106082441381432</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,25 +518,25 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1052016344939943</v>
+        <v>0.1798937303399271</v>
       </c>
       <c r="D4">
-        <v>0.007045417021805278</v>
+        <v>0.02158405416770925</v>
       </c>
       <c r="E4">
-        <v>0.1069295122109146</v>
+        <v>0.1267606846778548</v>
       </c>
       <c r="F4">
-        <v>1.436777802587358</v>
+        <v>1.132458981401868</v>
       </c>
       <c r="G4">
-        <v>0.0007607140738957741</v>
+        <v>0.002427448008444115</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.241039462566619</v>
+        <v>1.100605263042212</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1739960993984937</v>
+        <v>0.1676285239037725</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>4.842671968718207</v>
+        <v>4.010087063132971</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,25 +565,25 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1026621333835465</v>
+        <v>0.1795980346741715</v>
       </c>
       <c r="D5">
-        <v>0.007006440925261259</v>
+        <v>0.02161831890332344</v>
       </c>
       <c r="E5">
-        <v>0.1034742172762861</v>
+        <v>0.1261550105877873</v>
       </c>
       <c r="F5">
-        <v>1.382217882360408</v>
+        <v>1.120663222324211</v>
       </c>
       <c r="G5">
-        <v>0.0007626202848995097</v>
+        <v>0.002428761312758298</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.19560398829735</v>
+        <v>1.091217549903973</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1677912841917646</v>
+        <v>0.1664146691010515</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>4.661272870876076</v>
+        <v>3.971641334929473</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,25 +612,25 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1022430631078777</v>
+        <v>0.1795502602553398</v>
       </c>
       <c r="D6">
-        <v>0.007000252649936201</v>
+        <v>0.02162413966536114</v>
       </c>
       <c r="E6">
-        <v>0.102903384698152</v>
+        <v>0.1260555916349624</v>
       </c>
       <c r="F6">
-        <v>1.373195248739037</v>
+        <v>1.118716094122874</v>
       </c>
       <c r="G6">
-        <v>0.0007629388870516917</v>
+        <v>0.002428981812263252</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.188092204526257</v>
+        <v>1.089669662163644</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1667658292637597</v>
+        <v>0.1662147690242222</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>4.631279118185489</v>
+        <v>3.96529801887624</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1051672082579103</v>
+        <v>0.1798896536075461</v>
       </c>
       <c r="D7">
-        <v>0.007044872048918904</v>
+        <v>0.02158450748144958</v>
       </c>
       <c r="E7">
-        <v>0.106882713887007</v>
+        <v>0.1267524390293495</v>
       </c>
       <c r="F7">
-        <v>1.436039457203833</v>
+        <v>1.132299124909721</v>
       </c>
       <c r="G7">
-        <v>0.000760739643280642</v>
+        <v>0.00242746555774476</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.240424465406136</v>
+        <v>1.100477923543778</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1739120876370208</v>
+        <v>0.1676120420978435</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>4.84021684102629</v>
+        <v>4.009565849089824</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1184789533475197</v>
+        <v>0.181580115414377</v>
       </c>
       <c r="D8">
-        <v>0.007286540907964323</v>
+        <v>0.02142870998961932</v>
       </c>
       <c r="E8">
-        <v>0.1249057806600042</v>
+        <v>0.1299954251432887</v>
       </c>
       <c r="F8">
-        <v>1.719306723032233</v>
+        <v>1.193922996505123</v>
       </c>
       <c r="G8">
-        <v>0.0007513280569616883</v>
+        <v>0.002421126379851074</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.476603510144031</v>
+        <v>1.149767023358578</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.206223035963319</v>
+        <v>0.1740199911306775</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>5.78268546167908</v>
+        <v>4.210828249189092</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,25 +753,25 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.1463551292827248</v>
+        <v>0.185589518149186</v>
       </c>
       <c r="D9">
-        <v>0.007960918222774893</v>
+        <v>0.02119212000845394</v>
       </c>
       <c r="E9">
-        <v>0.1623348259940869</v>
+        <v>0.1369628760972148</v>
       </c>
       <c r="F9">
-        <v>2.30231500565516</v>
+        <v>1.320892216726307</v>
       </c>
       <c r="G9">
-        <v>0.0007338326810159579</v>
+        <v>0.00240995025061197</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.963868294490126</v>
+        <v>1.252211094437115</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2731385049924739</v>
+        <v>0.1874653207916026</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>7.725403880218664</v>
+        <v>4.627008972195654</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,25 +800,25 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.1682445860910065</v>
+        <v>0.1889607340264092</v>
       </c>
       <c r="D10">
-        <v>0.008623743031932918</v>
+        <v>0.02106063777035061</v>
       </c>
       <c r="E10">
-        <v>0.1915610338741516</v>
+        <v>0.1424575016859748</v>
       </c>
       <c r="F10">
-        <v>2.754071484591094</v>
+        <v>1.417989857857151</v>
       </c>
       <c r="G10">
-        <v>0.0007214648883424091</v>
+        <v>0.002402495546440534</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>2.342255625072639</v>
+        <v>1.331071227906207</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.3252958871492666</v>
+        <v>0.1978900075683612</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>9.233059195565943</v>
+        <v>4.946156478208479</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,25 +847,25 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.1785924099428939</v>
+        <v>0.1905873037926256</v>
       </c>
       <c r="D11">
-        <v>0.008973934352507484</v>
+        <v>0.02101009120178432</v>
       </c>
       <c r="E11">
-        <v>0.2053485514075462</v>
+        <v>0.145039856133792</v>
       </c>
       <c r="F11">
-        <v>2.966375538823627</v>
+        <v>1.463008112900752</v>
       </c>
       <c r="G11">
-        <v>0.0007159187421721223</v>
+        <v>0.002399266604373111</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>2.520282432587848</v>
+        <v>1.367742183416567</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.3498865765709951</v>
+        <v>0.2027534419481896</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>9.94220526108478</v>
+        <v>5.094311143175787</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,25 +894,25 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.1825749532333418</v>
+        <v>0.191216647170819</v>
       </c>
       <c r="D12">
-        <v>0.009114787442722871</v>
+        <v>0.02099228925564844</v>
       </c>
       <c r="E12">
-        <v>0.210651495720164</v>
+        <v>0.1460297154527836</v>
       </c>
       <c r="F12">
-        <v>3.047909975747899</v>
+        <v>1.480178544764215</v>
       </c>
       <c r="G12">
-        <v>0.0007138276754804071</v>
+        <v>0.002398067076580013</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>2.588684294260432</v>
+        <v>1.381744171662561</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.3593430706334289</v>
+        <v>0.2046126905016905</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>10.21465030586523</v>
+        <v>5.150845182168837</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.1817142556574822</v>
+        <v>0.1910805105783737</v>
       </c>
       <c r="D13">
-        <v>0.009084063474151804</v>
+        <v>0.02099606356555483</v>
       </c>
       <c r="E13">
-        <v>0.2095055764235454</v>
+        <v>0.145815997728306</v>
       </c>
       <c r="F13">
-        <v>3.030296590803204</v>
+        <v>1.476475097936799</v>
       </c>
       <c r="G13">
-        <v>0.0007142776585480348</v>
+        <v>0.002398324386342368</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>2.57390642410158</v>
+        <v>1.378723442314637</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.3572996656123024</v>
+        <v>0.2042114842439702</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>10.15579100776233</v>
+        <v>5.13865033508938</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,25 +988,25 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.1789187235608694</v>
+        <v>0.1906388116123452</v>
       </c>
       <c r="D14">
-        <v>0.008985349325303815</v>
+        <v>0.02100859975196556</v>
       </c>
       <c r="E14">
-        <v>0.205783117460868</v>
+        <v>0.1451210520098201</v>
       </c>
       <c r="F14">
-        <v>2.97305958596462</v>
+        <v>1.464418263595377</v>
       </c>
       <c r="G14">
-        <v>0.0007157465403953169</v>
+        <v>0.002399167454178554</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>2.525889253310424</v>
+        <v>1.368891815708295</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.3506615456768571</v>
+        <v>0.2029060504531088</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>9.964537739901971</v>
+        <v>5.098953572300843</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,25 +1035,25 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.1772149727283789</v>
+        <v>0.1903700036578471</v>
       </c>
       <c r="D15">
-        <v>0.008925998123959999</v>
+        <v>0.02101645309768685</v>
       </c>
       <c r="E15">
-        <v>0.203514025137693</v>
+        <v>0.1446969395864031</v>
       </c>
       <c r="F15">
-        <v>2.938153828571558</v>
+        <v>1.457049153434042</v>
       </c>
       <c r="G15">
-        <v>0.0007166473877417153</v>
+        <v>0.002399686875520409</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>2.496610317726919</v>
+        <v>1.362884727316185</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.3466149753072187</v>
+        <v>0.2021087272073316</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>9.847916091758748</v>
+        <v>5.074694405999878</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,25 +1082,25 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.1675768396506783</v>
+        <v>0.1888563071407958</v>
       </c>
       <c r="D16">
-        <v>0.008601938261122655</v>
+        <v>0.0210641281084385</v>
       </c>
       <c r="E16">
-        <v>0.1906708126883032</v>
+        <v>0.1422904111266092</v>
       </c>
       <c r="F16">
-        <v>2.740347086129447</v>
+        <v>1.415064963122177</v>
       </c>
       <c r="G16">
-        <v>0.000721828756401748</v>
+        <v>0.002402709818985439</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>2.330751293776146</v>
+        <v>1.328690808459157</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.3237078896830923</v>
+        <v>0.1975746216706398</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>9.187229683864359</v>
+        <v>4.936534349567978</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,25 +1129,25 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.1617694433063406</v>
+        <v>0.1879515372131237</v>
       </c>
       <c r="D17">
-        <v>0.008416425376644554</v>
+        <v>0.0210957528753859</v>
       </c>
       <c r="E17">
-        <v>0.1829254966933789</v>
+        <v>0.1408353445563861</v>
       </c>
       <c r="F17">
-        <v>2.620849062303193</v>
+        <v>1.389526968570152</v>
       </c>
       <c r="G17">
-        <v>0.0007250262580263876</v>
+        <v>0.002404605759710912</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>2.230605883694878</v>
+        <v>1.307918716518444</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.3098900689859221</v>
+        <v>0.1948242369595619</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>8.788262572469648</v>
+        <v>4.852541587904398</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,25 +1176,25 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.1584653809522223</v>
+        <v>0.1874398882634694</v>
       </c>
       <c r="D18">
-        <v>0.008314218470442114</v>
+        <v>0.02111481429449569</v>
       </c>
       <c r="E18">
-        <v>0.1785161973752807</v>
+        <v>0.1400062201813341</v>
       </c>
       <c r="F18">
-        <v>2.552745967623082</v>
+        <v>1.374917948626319</v>
       </c>
       <c r="G18">
-        <v>0.0007268730664393509</v>
+        <v>0.002405711533029857</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>2.173550598653165</v>
+        <v>1.296046131035439</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.302022393387162</v>
+        <v>0.1932536868447698</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>8.560943760071552</v>
+        <v>4.804510775138681</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,25 +1223,25 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.157352673112797</v>
+        <v>0.1872681549185131</v>
       </c>
       <c r="D19">
-        <v>0.008280350404259451</v>
+        <v>0.02112141767928932</v>
       </c>
       <c r="E19">
-        <v>0.1770308005080565</v>
+        <v>0.1397268290449531</v>
       </c>
       <c r="F19">
-        <v>2.529790855511209</v>
+        <v>1.369985252527783</v>
       </c>
       <c r="G19">
-        <v>0.0007274997523692509</v>
+        <v>0.002406088556918402</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>2.15432243130914</v>
+        <v>1.292039127776491</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2993716918745264</v>
+        <v>0.1927238788907744</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>8.484332111775188</v>
+        <v>4.788296280678253</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,25 +1270,25 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.1623838497626053</v>
+        <v>0.1880469456635439</v>
       </c>
       <c r="D20">
-        <v>0.008435699944151054</v>
+        <v>0.02109229610165997</v>
       </c>
       <c r="E20">
-        <v>0.1837452031964233</v>
+        <v>0.1409894320030389</v>
       </c>
       <c r="F20">
-        <v>2.633503622664477</v>
+        <v>1.392237269412476</v>
       </c>
       <c r="G20">
-        <v>0.0007246850988029163</v>
+        <v>0.002404402353339313</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>2.241209103859703</v>
+        <v>1.310122175544649</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.311352584341364</v>
+        <v>0.195115839373301</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>8.830506312656212</v>
+        <v>4.861453797260026</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,25 +1317,25 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.1797380326726454</v>
+        <v>0.1907681855156795</v>
       </c>
       <c r="D21">
-        <v>0.00901410936562641</v>
+        <v>0.02100488117750032</v>
       </c>
       <c r="E21">
-        <v>0.206874175181305</v>
+        <v>0.145324848792562</v>
       </c>
       <c r="F21">
-        <v>2.989839160572075</v>
+        <v>1.467956301614038</v>
       </c>
       <c r="G21">
-        <v>0.0007153148665188148</v>
+        <v>0.002398919196148122</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>2.539965075730464</v>
+        <v>1.371776461281314</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.3526072249124326</v>
+        <v>0.203289009956606</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>10.02060264298649</v>
+        <v>5.110601745461167</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,25 +1364,25 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.1914577420130854</v>
+        <v>0.1926247717818228</v>
       </c>
       <c r="D22">
-        <v>0.009440920595341851</v>
+        <v>0.02095555810079119</v>
       </c>
       <c r="E22">
-        <v>0.222473969934839</v>
+        <v>0.1482281421277918</v>
       </c>
       <c r="F22">
-        <v>3.229457891654448</v>
+        <v>1.51816047640034</v>
       </c>
       <c r="G22">
-        <v>0.0007092428212148135</v>
+        <v>0.002395470818923324</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>2.741050387375822</v>
+        <v>1.412744699467552</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.3804233859129198</v>
+        <v>0.2087331380030264</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>10.82148375525219</v>
+        <v>5.275948717081974</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,25 +1411,25 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.1851652578592962</v>
+        <v>0.1916267220930337</v>
       </c>
       <c r="D23">
-        <v>0.009208190413797723</v>
+        <v>0.02098116610996215</v>
       </c>
       <c r="E23">
-        <v>0.2140997521851276</v>
+        <v>0.1466721859507629</v>
       </c>
       <c r="F23">
-        <v>3.100893626890013</v>
+        <v>1.491299570416544</v>
       </c>
       <c r="G23">
-        <v>0.0007124796959050237</v>
+        <v>0.002397298955267134</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>2.633143003878601</v>
+        <v>1.390817253235127</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.3654918291763636</v>
+        <v>0.2058180784955113</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>10.39172312882567</v>
+        <v>5.187468660132424</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,25 +1458,25 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.1621059691476034</v>
+        <v>0.1880037849817739</v>
       </c>
       <c r="D24">
-        <v>0.00842697215248478</v>
+        <v>0.02109385616890691</v>
       </c>
       <c r="E24">
-        <v>0.183374478946547</v>
+        <v>0.1409197459848599</v>
       </c>
       <c r="F24">
-        <v>2.627780645538905</v>
+        <v>1.391011714737971</v>
       </c>
       <c r="G24">
-        <v>0.0007248393101512843</v>
+        <v>0.002404494264359842</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>2.236413779721545</v>
+        <v>1.30912577508937</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.3106911447609662</v>
+        <v>0.1949839726599549</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>8.811401565078597</v>
+        <v>4.857423784822913</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,25 +1505,25 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1385923777537528</v>
+        <v>0.1844303053042466</v>
       </c>
       <c r="D25">
-        <v>0.007752769019718997</v>
+        <v>0.02124871243885806</v>
       </c>
       <c r="E25">
-        <v>0.1519419595302693</v>
+        <v>0.1350123955113567</v>
       </c>
       <c r="F25">
-        <v>2.141007658950031</v>
+        <v>1.285879800927859</v>
       </c>
       <c r="G25">
-        <v>0.0007384724626381124</v>
+        <v>0.002412840234471541</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.828918616902456</v>
+        <v>1.223870829721321</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.2545756937443144</v>
+        <v>0.1837328012529866</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>7.187533421665592</v>
+        <v>4.512091093311255</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_172/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_172/res_line/pl_mw.xlsx
@@ -424,25 +424,25 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1820850610635887</v>
+        <v>0.12219467143656</v>
       </c>
       <c r="D2">
-        <v>0.02139114999639347</v>
+        <v>0.007364140351203474</v>
       </c>
       <c r="E2">
-        <v>0.1309150718809811</v>
+        <v>0.129915075119424</v>
       </c>
       <c r="F2">
-        <v>1.211031564607481</v>
+        <v>1.797698682742762</v>
       </c>
       <c r="G2">
-        <v>0.002419494034503993</v>
+        <v>0.0007488463571929351</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.163511203300047</v>
+        <v>1.542038469277131</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1758153550338051</v>
+        <v>0.2151905644388563</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>4.26680577857752</v>
+        <v>6.043687636112566</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,25 +471,25 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.180673226964899</v>
+        <v>0.1115443333276005</v>
       </c>
       <c r="D3">
-        <v>0.02150530346930246</v>
+        <v>0.007153179242338936</v>
       </c>
       <c r="E3">
-        <v>0.1282938749518223</v>
+        <v>0.1155336962870557</v>
       </c>
       <c r="F3">
-        <v>1.161875341057907</v>
+        <v>1.572264000286552</v>
       </c>
       <c r="G3">
-        <v>0.002424323654764397</v>
+        <v>0.0007561192715068635</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.124087299103635</v>
+        <v>1.353947958768615</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1706748245311545</v>
+        <v>0.1894313576299211</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>4.106082441381432</v>
+        <v>5.293319871489985</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,25 +518,25 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1798937303399271</v>
+        <v>0.1052016344939943</v>
       </c>
       <c r="D4">
-        <v>0.02158405416770925</v>
+        <v>0.007045417021634748</v>
       </c>
       <c r="E4">
-        <v>0.1267606846778548</v>
+        <v>0.1069295122109146</v>
       </c>
       <c r="F4">
-        <v>1.132458981401868</v>
+        <v>1.436777802587372</v>
       </c>
       <c r="G4">
-        <v>0.002427448008444115</v>
+        <v>0.0007607140739236795</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.100605263042212</v>
+        <v>1.241039462566633</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1676285239037725</v>
+        <v>0.17399609939865</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>4.010087063132971</v>
+        <v>4.842671968718207</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,25 +565,25 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1795980346741715</v>
+        <v>0.1026621333831201</v>
       </c>
       <c r="D5">
-        <v>0.02161831890332344</v>
+        <v>0.007006440925456658</v>
       </c>
       <c r="E5">
-        <v>0.1261550105877873</v>
+        <v>0.1034742172763075</v>
       </c>
       <c r="F5">
-        <v>1.120663222324211</v>
+        <v>1.382217882360393</v>
       </c>
       <c r="G5">
-        <v>0.002428761312758298</v>
+        <v>0.000762620284927574</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.091217549903973</v>
+        <v>1.19560398829735</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1664146691010515</v>
+        <v>0.1677912841917006</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>3.971641334929473</v>
+        <v>4.661272870876076</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,25 +612,25 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1795502602553398</v>
+        <v>0.1022430631078919</v>
       </c>
       <c r="D6">
-        <v>0.02162413966536114</v>
+        <v>0.007000252649831396</v>
       </c>
       <c r="E6">
-        <v>0.1260555916349624</v>
+        <v>0.1029033846981555</v>
       </c>
       <c r="F6">
-        <v>1.118716094122874</v>
+        <v>1.373195248739037</v>
       </c>
       <c r="G6">
-        <v>0.002428981812263252</v>
+        <v>0.0007629388870524944</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.089669662163644</v>
+        <v>1.188092204526257</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1662147690242222</v>
+        <v>0.1667658292637242</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>3.96529801887624</v>
+        <v>4.631279118185546</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1798896536075461</v>
+        <v>0.1051672082578534</v>
       </c>
       <c r="D7">
-        <v>0.02158450748144958</v>
+        <v>0.007044872048805217</v>
       </c>
       <c r="E7">
-        <v>0.1267524390293495</v>
+        <v>0.106882713887007</v>
       </c>
       <c r="F7">
-        <v>1.132299124909721</v>
+        <v>1.436039457203805</v>
       </c>
       <c r="G7">
-        <v>0.00242746555774476</v>
+        <v>0.000760739643308827</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.100477923543778</v>
+        <v>1.24042446540615</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1676120420978435</v>
+        <v>0.1739120876370848</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>4.009565849089824</v>
+        <v>4.840216841026347</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.181580115414377</v>
+        <v>0.1184789533473918</v>
       </c>
       <c r="D8">
-        <v>0.02142870998961932</v>
+        <v>0.007286540907939454</v>
       </c>
       <c r="E8">
-        <v>0.1299954251432887</v>
+        <v>0.1249057806600113</v>
       </c>
       <c r="F8">
-        <v>1.193922996505123</v>
+        <v>1.719306723032233</v>
       </c>
       <c r="G8">
-        <v>0.002421126379851074</v>
+        <v>0.0007513280569333761</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.149767023358578</v>
+        <v>1.476603510144017</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1740199911306775</v>
+        <v>0.2062230359633617</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>4.210828249189092</v>
+        <v>5.78268546167908</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,25 +753,25 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.185589518149186</v>
+        <v>0.1463551292824974</v>
       </c>
       <c r="D9">
-        <v>0.02119212000845394</v>
+        <v>0.00796091822256173</v>
       </c>
       <c r="E9">
-        <v>0.1369628760972148</v>
+        <v>0.1623348259940656</v>
       </c>
       <c r="F9">
-        <v>1.320892216726307</v>
+        <v>2.302315005655146</v>
       </c>
       <c r="G9">
-        <v>0.00240995025061197</v>
+        <v>0.0007338326811269144</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.252211094437115</v>
+        <v>1.963868294490098</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.1874653207916026</v>
+        <v>0.2731385049924597</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>4.627008972195654</v>
+        <v>7.725403880218664</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,25 +800,25 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.1889607340264092</v>
+        <v>0.1682445860912196</v>
       </c>
       <c r="D10">
-        <v>0.02106063777035061</v>
+        <v>0.008623743032149633</v>
       </c>
       <c r="E10">
-        <v>0.1424575016859748</v>
+        <v>0.1915610338741871</v>
       </c>
       <c r="F10">
-        <v>1.417989857857151</v>
+        <v>2.754071484591094</v>
       </c>
       <c r="G10">
-        <v>0.002402495546440534</v>
+        <v>0.0007214648883989705</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.331071227906207</v>
+        <v>2.342255625072653</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.1978900075683612</v>
+        <v>0.3252958871493234</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>4.946156478208479</v>
+        <v>9.233059195566</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,25 +847,25 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.1905873037926256</v>
+        <v>0.1785924099428939</v>
       </c>
       <c r="D11">
-        <v>0.02101009120178432</v>
+        <v>0.008973934352738411</v>
       </c>
       <c r="E11">
-        <v>0.145039856133792</v>
+        <v>0.2053485514075462</v>
       </c>
       <c r="F11">
-        <v>1.463008112900752</v>
+        <v>2.966375538823627</v>
       </c>
       <c r="G11">
-        <v>0.002399266604373111</v>
+        <v>0.0007159187421727142</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.367742183416567</v>
+        <v>2.520282432587848</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2027534419481896</v>
+        <v>0.3498865765709951</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>5.094311143175787</v>
+        <v>9.942205261084837</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,25 +894,25 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.191216647170819</v>
+        <v>0.1825749532335834</v>
       </c>
       <c r="D12">
-        <v>0.02099228925564844</v>
+        <v>0.009114787443071037</v>
       </c>
       <c r="E12">
-        <v>0.1460297154527836</v>
+        <v>0.210651495720164</v>
       </c>
       <c r="F12">
-        <v>1.480178544764215</v>
+        <v>3.047909975747899</v>
       </c>
       <c r="G12">
-        <v>0.002398067076580013</v>
+        <v>0.0007138276754754093</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.381744171662561</v>
+        <v>2.588684294260418</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2046126905016905</v>
+        <v>0.3593430706334146</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>5.150845182168837</v>
+        <v>10.21465030586529</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.1910805105783737</v>
+        <v>0.1817142556569991</v>
       </c>
       <c r="D13">
-        <v>0.02099606356555483</v>
+        <v>0.009084063474254833</v>
       </c>
       <c r="E13">
-        <v>0.145815997728306</v>
+        <v>0.2095055764236093</v>
       </c>
       <c r="F13">
-        <v>1.476475097936799</v>
+        <v>3.03029659080326</v>
       </c>
       <c r="G13">
-        <v>0.002398324386342368</v>
+        <v>0.0007142776586622311</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.378723442314637</v>
+        <v>2.573906424101594</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2042114842439702</v>
+        <v>0.3572996656124587</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>5.13865033508938</v>
+        <v>10.1557910077625</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,25 +988,25 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.1906388116123452</v>
+        <v>0.1789187235608551</v>
       </c>
       <c r="D14">
-        <v>0.02100859975196556</v>
+        <v>0.008985349325417502</v>
       </c>
       <c r="E14">
-        <v>0.1451210520098201</v>
+        <v>0.2057831174608253</v>
       </c>
       <c r="F14">
-        <v>1.464418263595377</v>
+        <v>2.973059585964648</v>
       </c>
       <c r="G14">
-        <v>0.002399167454178554</v>
+        <v>0.0007157465403949838</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.368891815708295</v>
+        <v>2.525889253310424</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2029060504531088</v>
+        <v>0.3506615456768571</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>5.098953572300843</v>
+        <v>9.964537739902028</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,25 +1035,25 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.1903700036578471</v>
+        <v>0.1772149727283647</v>
       </c>
       <c r="D15">
-        <v>0.02101645309768685</v>
+        <v>0.008925998123967105</v>
       </c>
       <c r="E15">
-        <v>0.1446969395864031</v>
+        <v>0.2035140251376859</v>
       </c>
       <c r="F15">
-        <v>1.457049153434042</v>
+        <v>2.938153828571529</v>
       </c>
       <c r="G15">
-        <v>0.002399686875520409</v>
+        <v>0.0007166473876874378</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.362884727316185</v>
+        <v>2.496610317726919</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2021087272073316</v>
+        <v>0.3466149753071051</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>5.074694405999878</v>
+        <v>9.847916091758862</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,25 +1082,25 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.1888563071407958</v>
+        <v>0.1675768396509056</v>
       </c>
       <c r="D16">
-        <v>0.0210641281084385</v>
+        <v>0.008601938261126207</v>
       </c>
       <c r="E16">
-        <v>0.1422904111266092</v>
+        <v>0.1906708126883032</v>
       </c>
       <c r="F16">
-        <v>1.415064963122177</v>
+        <v>2.740347086129418</v>
       </c>
       <c r="G16">
-        <v>0.002402709818985439</v>
+        <v>0.0007218287564024859</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.328690808459157</v>
+        <v>2.330751293776117</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.1975746216706398</v>
+        <v>0.3237078896831775</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>4.936534349567978</v>
+        <v>9.187229683864359</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,25 +1129,25 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.1879515372131237</v>
+        <v>0.161769443306568</v>
       </c>
       <c r="D17">
-        <v>0.0210957528753859</v>
+        <v>0.00841642537653442</v>
       </c>
       <c r="E17">
-        <v>0.1408353445563861</v>
+        <v>0.1829254966933789</v>
       </c>
       <c r="F17">
-        <v>1.389526968570152</v>
+        <v>2.620849062303137</v>
       </c>
       <c r="G17">
-        <v>0.002404605759710912</v>
+        <v>0.000725026257915061</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.307918716518444</v>
+        <v>2.230605883694864</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.1948242369595619</v>
+        <v>0.3098900689860358</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>4.852541587904398</v>
+        <v>8.788262572469762</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,25 +1176,25 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.1874398882634694</v>
+        <v>0.1584653809521797</v>
       </c>
       <c r="D18">
-        <v>0.02111481429449569</v>
+        <v>0.008314218470335533</v>
       </c>
       <c r="E18">
-        <v>0.1400062201813341</v>
+        <v>0.1785161973752807</v>
       </c>
       <c r="F18">
-        <v>1.374917948626319</v>
+        <v>2.552745967623025</v>
       </c>
       <c r="G18">
-        <v>0.002405711533029857</v>
+        <v>0.0007268730664389952</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.296046131035439</v>
+        <v>2.173550598653151</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.1932536868447698</v>
+        <v>0.302022393387162</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>4.804510775138681</v>
+        <v>8.560943760071495</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,25 +1223,25 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.1872681549185131</v>
+        <v>0.1573526731125696</v>
       </c>
       <c r="D19">
-        <v>0.02112141767928932</v>
+        <v>0.008280350404376691</v>
       </c>
       <c r="E19">
-        <v>0.1397268290449531</v>
+        <v>0.1770308005080921</v>
       </c>
       <c r="F19">
-        <v>1.369985252527783</v>
+        <v>2.529790855511237</v>
       </c>
       <c r="G19">
-        <v>0.002406088556918402</v>
+        <v>0.0007274997523143104</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.292039127776491</v>
+        <v>2.15432243130914</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.1927238788907744</v>
+        <v>0.2993716918745264</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>4.788296280678253</v>
+        <v>8.484332111775188</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,25 +1270,25 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.1880469456635439</v>
+        <v>0.1623838497626053</v>
       </c>
       <c r="D20">
-        <v>0.02109229610165997</v>
+        <v>0.008435699944261188</v>
       </c>
       <c r="E20">
-        <v>0.1409894320030389</v>
+        <v>0.1837452031964233</v>
       </c>
       <c r="F20">
-        <v>1.392237269412476</v>
+        <v>2.633503622664477</v>
       </c>
       <c r="G20">
-        <v>0.002404402353339313</v>
+        <v>0.0007246850988597179</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.310122175544649</v>
+        <v>2.241209103859703</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.195115839373301</v>
+        <v>0.311352584341293</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>4.861453797260026</v>
+        <v>8.830506312656325</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,25 +1317,25 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.1907681855156795</v>
+        <v>0.1797380326728586</v>
       </c>
       <c r="D21">
-        <v>0.02100488117750032</v>
+        <v>0.009014109365502065</v>
       </c>
       <c r="E21">
-        <v>0.145324848792562</v>
+        <v>0.2068741751813477</v>
       </c>
       <c r="F21">
-        <v>1.467956301614038</v>
+        <v>2.989839160572046</v>
       </c>
       <c r="G21">
-        <v>0.002398919196148122</v>
+        <v>0.0007153148665776302</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.371776461281314</v>
+        <v>2.539965075730521</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.203289009956606</v>
+        <v>0.3526072249125605</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>5.110601745461167</v>
+        <v>10.02060264298655</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,25 +1364,25 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.1926247717818228</v>
+        <v>0.1914577420123607</v>
       </c>
       <c r="D22">
-        <v>0.02095555810079119</v>
+        <v>0.0094409205952104</v>
       </c>
       <c r="E22">
-        <v>0.1482281421277918</v>
+        <v>0.2224739699348746</v>
       </c>
       <c r="F22">
-        <v>1.51816047640034</v>
+        <v>3.22945789165442</v>
       </c>
       <c r="G22">
-        <v>0.002395470818923324</v>
+        <v>0.0007092428212222683</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1.412744699467552</v>
+        <v>2.741050387375807</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2087331380030264</v>
+        <v>0.3804233859128345</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>5.275948717081974</v>
+        <v>10.82148375525213</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,25 +1411,25 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.1916267220930337</v>
+        <v>0.1851652578595093</v>
       </c>
       <c r="D23">
-        <v>0.02098116610996215</v>
+        <v>0.00920819041377996</v>
       </c>
       <c r="E23">
-        <v>0.1466721859507629</v>
+        <v>0.2140997521850565</v>
       </c>
       <c r="F23">
-        <v>1.491299570416544</v>
+        <v>3.100893626890041</v>
       </c>
       <c r="G23">
-        <v>0.002397298955267134</v>
+        <v>0.0007124796957943962</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.390817253235127</v>
+        <v>2.633143003878601</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2058180784955113</v>
+        <v>0.3654918291764062</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>5.187468660132424</v>
+        <v>10.39172312882567</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,25 +1458,25 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.1880037849817739</v>
+        <v>0.162105969148044</v>
       </c>
       <c r="D24">
-        <v>0.02109385616890691</v>
+        <v>0.008426972152260959</v>
       </c>
       <c r="E24">
-        <v>0.1409197459848599</v>
+        <v>0.1833744789465968</v>
       </c>
       <c r="F24">
-        <v>1.391011714737971</v>
+        <v>2.627780645538962</v>
       </c>
       <c r="G24">
-        <v>0.002404494264359842</v>
+        <v>0.0007248393101511739</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.30912577508937</v>
+        <v>2.236413779721545</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.1949839726599549</v>
+        <v>0.3106911447610514</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>4.857423784822913</v>
+        <v>8.811401565078654</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,25 +1505,25 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1844303053042466</v>
+        <v>0.138592377753767</v>
       </c>
       <c r="D25">
-        <v>0.02124871243885806</v>
+        <v>0.007752769019614192</v>
       </c>
       <c r="E25">
-        <v>0.1350123955113567</v>
+        <v>0.1519419595302658</v>
       </c>
       <c r="F25">
-        <v>1.285879800927859</v>
+        <v>2.141007658950031</v>
       </c>
       <c r="G25">
-        <v>0.002412840234471541</v>
+        <v>0.0007384724625816297</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.223870829721321</v>
+        <v>1.828918616902442</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.1837328012529866</v>
+        <v>0.2545756937443571</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>4.512091093311255</v>
+        <v>7.187533421665592</v>
       </c>
     </row>
   </sheetData>
